--- a/product-definitions/spreadsheet/brightness-temperature.xlsx
+++ b/product-definitions/spreadsheet/brightness-temperature.xlsx
@@ -12,20 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>radiation_frequency</t>
+  </si>
+  <si>
+    <t>&lt;m&gt;</t>
+  </si>
+  <si>
+    <t>s-1</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -35,25 +44,13 @@
     <t>Proposed Name</t>
   </si>
   <si>
-    <t>radiation_frequency</t>
-  </si>
-  <si>
     <t>Example values</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>&lt;m&gt;</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>float32</t>
-  </si>
-  <si>
-    <t>s-1</t>
   </si>
   <si>
     <t>dimension</t>
@@ -354,10 +351,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
@@ -365,16 +371,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -488,44 +485,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
@@ -1551,74 +1548,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10">
         <v>-1.0E20</v>
@@ -1626,37 +1621,37 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="13"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="12"/>
     </row>
@@ -1664,45 +1659,45 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="14">
         <v>-1.0E20</v>
@@ -1710,34 +1705,34 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
@@ -1745,7 +1740,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -1764,47 +1759,47 @@
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="16"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="16"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="16"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="20">
         <v>-1.0E20</v>
@@ -1814,40 +1809,40 @@
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="D32" s="16"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="D34" s="16"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D35" s="16"/>
     </row>
@@ -1856,7 +1851,7 @@
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
@@ -1870,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -1879,10 +1874,10 @@
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -1891,7 +1886,7 @@
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="25">
         <v>1.0</v>
@@ -1903,7 +1898,7 @@
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="23"/>
@@ -1913,10 +1908,10 @@
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
@@ -1925,10 +1920,10 @@
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -1937,10 +1932,10 @@
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
@@ -1956,7 +1951,7 @@
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -1970,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -1979,10 +1974,10 @@
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -1991,7 +1986,7 @@
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="23"/>
       <c r="B49" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="25">
         <v>1.0</v>
@@ -2003,7 +1998,7 @@
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="23"/>
       <c r="B50" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="23"/>
@@ -2013,10 +2008,10 @@
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -2025,10 +2020,10 @@
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="23"/>
       <c r="B52" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -2037,10 +2032,10 @@
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="23"/>
       <c r="B53" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
@@ -2056,7 +2051,7 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="24"/>
@@ -2067,10 +2062,10 @@
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="23"/>
       <c r="B56" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -2082,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -2091,10 +2086,10 @@
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -2103,7 +2098,7 @@
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="23"/>
       <c r="B59" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="25">
         <v>1.0</v>
@@ -2115,7 +2110,7 @@
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="23"/>
       <c r="B60" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="23"/>
@@ -2125,10 +2120,10 @@
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="23"/>
       <c r="B61" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -2137,10 +2132,10 @@
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="23"/>
       <c r="B62" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -2149,10 +2144,10 @@
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="23"/>
       <c r="B63" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
@@ -2168,7 +2163,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -2179,10 +2174,10 @@
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="23"/>
       <c r="B66" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -2194,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -2203,10 +2198,10 @@
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="23"/>
       <c r="B68" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -2215,7 +2210,7 @@
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="23"/>
       <c r="B69" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="25">
         <v>1.0</v>
@@ -2227,7 +2222,7 @@
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
@@ -2237,10 +2232,10 @@
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
@@ -2249,10 +2244,10 @@
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2261,10 +2256,10 @@
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="23"/>
       <c r="B73" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -2280,7 +2275,7 @@
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -2291,10 +2286,10 @@
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="23"/>
       <c r="B76" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -2306,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
@@ -2315,10 +2310,10 @@
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="23"/>
       <c r="B78" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -2327,7 +2322,7 @@
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="23"/>
       <c r="B79" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="25">
         <v>1.0</v>
@@ -2339,7 +2334,7 @@
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="23"/>
       <c r="B80" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="23"/>
@@ -2349,10 +2344,10 @@
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="23"/>
       <c r="B81" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="23"/>
@@ -2361,10 +2356,10 @@
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="23"/>
       <c r="B82" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -2373,10 +2368,10 @@
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="23"/>
       <c r="B83" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -2392,7 +2387,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="24"/>
@@ -2406,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -2415,10 +2410,10 @@
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="23"/>
       <c r="B87" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -2427,7 +2422,7 @@
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="23"/>
       <c r="B88" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="25">
         <v>1.0</v>
@@ -2439,7 +2434,7 @@
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="23"/>
       <c r="B89" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="25"/>
       <c r="D89" s="23"/>
@@ -2449,10 +2444,10 @@
     <row r="90" ht="12.0" customHeight="1">
       <c r="A90" s="23"/>
       <c r="B90" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="23"/>
@@ -2461,10 +2456,10 @@
     <row r="91" ht="12.0" customHeight="1">
       <c r="A91" s="23"/>
       <c r="B91" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -2473,10 +2468,10 @@
     <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="23"/>
       <c r="B92" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
@@ -2492,7 +2487,7 @@
     </row>
     <row r="94" ht="12.0" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
@@ -2506,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
@@ -2515,10 +2510,10 @@
     <row r="96" ht="12.0" customHeight="1">
       <c r="A96" s="23"/>
       <c r="B96" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
@@ -2527,7 +2522,7 @@
     <row r="97" ht="12.0" customHeight="1">
       <c r="A97" s="23"/>
       <c r="B97" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" s="25">
         <v>1.0</v>
@@ -2539,7 +2534,7 @@
     <row r="98" ht="12.0" customHeight="1">
       <c r="A98" s="23"/>
       <c r="B98" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="25"/>
       <c r="D98" s="23"/>
@@ -2549,10 +2544,10 @@
     <row r="99" ht="12.0" customHeight="1">
       <c r="A99" s="23"/>
       <c r="B99" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="23"/>
@@ -2561,10 +2556,10 @@
     <row r="100" ht="12.0" customHeight="1">
       <c r="A100" s="23"/>
       <c r="B100" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
@@ -2573,10 +2568,10 @@
     <row r="101" ht="12.0" customHeight="1">
       <c r="A101" s="23"/>
       <c r="B101" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -2592,7 +2587,7 @@
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
@@ -2606,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -2615,10 +2610,10 @@
     <row r="105" ht="12.0" customHeight="1">
       <c r="A105" s="23"/>
       <c r="B105" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -2627,7 +2622,7 @@
     <row r="106" ht="12.0" customHeight="1">
       <c r="A106" s="23"/>
       <c r="B106" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="25">
         <v>1.0</v>
@@ -2639,7 +2634,7 @@
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="23"/>
       <c r="B107" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="25"/>
       <c r="D107" s="23"/>
@@ -2649,10 +2644,10 @@
     <row r="108" ht="12.0" customHeight="1">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="23"/>
@@ -2661,10 +2656,10 @@
     <row r="109" ht="12.0" customHeight="1">
       <c r="A109" s="23"/>
       <c r="B109" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
@@ -2673,10 +2668,10 @@
     <row r="110" ht="12.0" customHeight="1">
       <c r="A110" s="23"/>
       <c r="B110" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
@@ -2692,7 +2687,7 @@
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
@@ -2706,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
@@ -2715,10 +2710,10 @@
     <row r="114" ht="12.0" customHeight="1">
       <c r="A114" s="23"/>
       <c r="B114" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
@@ -2727,7 +2722,7 @@
     <row r="115" ht="12.0" customHeight="1">
       <c r="A115" s="23"/>
       <c r="B115" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" s="25">
         <v>1.0</v>
@@ -2739,7 +2734,7 @@
     <row r="116" ht="12.0" customHeight="1">
       <c r="A116" s="23"/>
       <c r="B116" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="25"/>
       <c r="D116" s="23"/>
@@ -2749,10 +2744,10 @@
     <row r="117" ht="12.0" customHeight="1">
       <c r="A117" s="23"/>
       <c r="B117" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="23"/>
@@ -2761,10 +2756,10 @@
     <row r="118" ht="12.0" customHeight="1">
       <c r="A118" s="23"/>
       <c r="B118" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -2773,10 +2768,10 @@
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" s="23"/>
       <c r="B119" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
@@ -2792,7 +2787,7 @@
     </row>
     <row r="121" ht="12.0" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
@@ -2806,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
@@ -2815,10 +2810,10 @@
     <row r="123" ht="12.0" customHeight="1">
       <c r="A123" s="23"/>
       <c r="B123" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
@@ -2827,7 +2822,7 @@
     <row r="124" ht="12.0" customHeight="1">
       <c r="A124" s="23"/>
       <c r="B124" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" s="25">
         <v>1.0</v>
@@ -2839,7 +2834,7 @@
     <row r="125" ht="12.0" customHeight="1">
       <c r="A125" s="23"/>
       <c r="B125" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" s="25"/>
       <c r="D125" s="23"/>
@@ -2849,10 +2844,10 @@
     <row r="126" ht="12.0" customHeight="1">
       <c r="A126" s="23"/>
       <c r="B126" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="23"/>
@@ -2861,10 +2856,10 @@
     <row r="127" ht="12.0" customHeight="1">
       <c r="A127" s="23"/>
       <c r="B127" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
@@ -2873,10 +2868,10 @@
     <row r="128" ht="12.0" customHeight="1">
       <c r="A128" s="23"/>
       <c r="B128" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
@@ -2892,7 +2887,7 @@
     </row>
     <row r="130" ht="12.0" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -2906,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -2915,10 +2910,10 @@
     <row r="132" ht="12.0" customHeight="1">
       <c r="A132" s="23"/>
       <c r="B132" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -2927,7 +2922,7 @@
     <row r="133" ht="12.0" customHeight="1">
       <c r="A133" s="23"/>
       <c r="B133" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" s="25">
         <v>1.0</v>
@@ -2939,7 +2934,7 @@
     <row r="134" ht="12.0" customHeight="1">
       <c r="A134" s="23"/>
       <c r="B134" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="25"/>
       <c r="D134" s="23"/>
@@ -2949,10 +2944,10 @@
     <row r="135" ht="12.0" customHeight="1">
       <c r="A135" s="23"/>
       <c r="B135" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="23"/>
@@ -2961,10 +2956,10 @@
     <row r="136" ht="12.0" customHeight="1">
       <c r="A136" s="23"/>
       <c r="B136" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -2973,10 +2968,10 @@
     <row r="137" ht="12.0" customHeight="1">
       <c r="A137" s="23"/>
       <c r="B137" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
@@ -2992,7 +2987,7 @@
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="A139" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -3006,7 +3001,7 @@
         <v>11</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
@@ -3015,10 +3010,10 @@
     <row r="141" ht="12.0" customHeight="1">
       <c r="A141" s="23"/>
       <c r="B141" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
@@ -3027,7 +3022,7 @@
     <row r="142" ht="12.0" customHeight="1">
       <c r="A142" s="23"/>
       <c r="B142" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="25">
         <v>1.0</v>
@@ -3039,7 +3034,7 @@
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="23"/>
       <c r="B143" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="23"/>
@@ -3049,10 +3044,10 @@
     <row r="144" ht="12.0" customHeight="1">
       <c r="A144" s="23"/>
       <c r="B144" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="23"/>
@@ -3061,10 +3056,10 @@
     <row r="145" ht="12.0" customHeight="1">
       <c r="A145" s="23"/>
       <c r="B145" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
@@ -3073,10 +3068,10 @@
     <row r="146" ht="12.0" customHeight="1">
       <c r="A146" s="23"/>
       <c r="B146" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
@@ -3092,7 +3087,7 @@
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="A148" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B148" s="23"/>
       <c r="C148" s="24"/>
@@ -3106,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
@@ -3115,10 +3110,10 @@
     <row r="150" ht="12.0" customHeight="1">
       <c r="A150" s="23"/>
       <c r="B150" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
@@ -3127,7 +3122,7 @@
     <row r="151" ht="12.0" customHeight="1">
       <c r="A151" s="23"/>
       <c r="B151" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="25">
         <v>1.0</v>
@@ -3139,7 +3134,7 @@
     <row r="152" ht="12.0" customHeight="1">
       <c r="A152" s="23"/>
       <c r="B152" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="25"/>
       <c r="D152" s="23"/>
@@ -3149,10 +3144,10 @@
     <row r="153" ht="12.0" customHeight="1">
       <c r="A153" s="23"/>
       <c r="B153" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="23"/>
@@ -3161,10 +3156,10 @@
     <row r="154" ht="12.0" customHeight="1">
       <c r="A154" s="23"/>
       <c r="B154" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
@@ -3173,10 +3168,10 @@
     <row r="155" ht="12.0" customHeight="1">
       <c r="A155" s="23"/>
       <c r="B155" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
@@ -3192,7 +3187,7 @@
     </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="A157" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B157" s="23"/>
       <c r="C157" s="24"/>
@@ -3206,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
@@ -3215,10 +3210,10 @@
     <row r="159" ht="12.0" customHeight="1">
       <c r="A159" s="23"/>
       <c r="B159" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
@@ -3227,7 +3222,7 @@
     <row r="160" ht="12.0" customHeight="1">
       <c r="A160" s="23"/>
       <c r="B160" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" s="25">
         <v>1.0</v>
@@ -3239,7 +3234,7 @@
     <row r="161" ht="12.0" customHeight="1">
       <c r="A161" s="23"/>
       <c r="B161" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="25"/>
       <c r="D161" s="23"/>
@@ -3249,10 +3244,10 @@
     <row r="162" ht="12.0" customHeight="1">
       <c r="A162" s="23"/>
       <c r="B162" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="23"/>
@@ -3261,10 +3256,10 @@
     <row r="163" ht="12.0" customHeight="1">
       <c r="A163" s="23"/>
       <c r="B163" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
@@ -3273,10 +3268,10 @@
     <row r="164" ht="12.0" customHeight="1">
       <c r="A164" s="23"/>
       <c r="B164" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
@@ -3292,7 +3287,7 @@
     </row>
     <row r="166" ht="12.0" customHeight="1">
       <c r="A166" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B166" s="23"/>
       <c r="C166" s="24"/>
@@ -3306,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
@@ -3315,10 +3310,10 @@
     <row r="168" ht="12.0" customHeight="1">
       <c r="A168" s="23"/>
       <c r="B168" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
@@ -3327,7 +3322,7 @@
     <row r="169" ht="12.0" customHeight="1">
       <c r="A169" s="23"/>
       <c r="B169" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="25">
         <v>1.0</v>
@@ -3339,7 +3334,7 @@
     <row r="170" ht="12.0" customHeight="1">
       <c r="A170" s="23"/>
       <c r="B170" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C170" s="25"/>
       <c r="D170" s="23"/>
@@ -3349,10 +3344,10 @@
     <row r="171" ht="12.0" customHeight="1">
       <c r="A171" s="23"/>
       <c r="B171" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="23"/>
@@ -3361,10 +3356,10 @@
     <row r="172" ht="12.0" customHeight="1">
       <c r="A172" s="23"/>
       <c r="B172" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
@@ -3373,10 +3368,10 @@
     <row r="173" ht="12.0" customHeight="1">
       <c r="A173" s="23"/>
       <c r="B173" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
@@ -3392,7 +3387,7 @@
     </row>
     <row r="175" ht="12.0" customHeight="1">
       <c r="A175" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B175" s="23"/>
       <c r="C175" s="24"/>
@@ -3406,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
@@ -3415,10 +3410,10 @@
     <row r="177" ht="12.0" customHeight="1">
       <c r="A177" s="23"/>
       <c r="B177" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
@@ -3427,7 +3422,7 @@
     <row r="178" ht="12.0" customHeight="1">
       <c r="A178" s="23"/>
       <c r="B178" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" s="25">
         <v>1.0</v>
@@ -3439,7 +3434,7 @@
     <row r="179" ht="12.0" customHeight="1">
       <c r="A179" s="23"/>
       <c r="B179" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" s="25"/>
       <c r="D179" s="23"/>
@@ -3449,10 +3444,10 @@
     <row r="180" ht="12.0" customHeight="1">
       <c r="A180" s="23"/>
       <c r="B180" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="23"/>
@@ -3461,10 +3456,10 @@
     <row r="181" ht="12.0" customHeight="1">
       <c r="A181" s="23"/>
       <c r="B181" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
@@ -3473,10 +3468,10 @@
     <row r="182" ht="12.0" customHeight="1">
       <c r="A182" s="23"/>
       <c r="B182" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
@@ -3492,7 +3487,7 @@
     </row>
     <row r="184" ht="12.0" customHeight="1">
       <c r="A184" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B184" s="23"/>
       <c r="C184" s="24"/>
@@ -3506,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
@@ -3515,10 +3510,10 @@
     <row r="186" ht="12.0" customHeight="1">
       <c r="A186" s="23"/>
       <c r="B186" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
@@ -3527,7 +3522,7 @@
     <row r="187" ht="12.0" customHeight="1">
       <c r="A187" s="23"/>
       <c r="B187" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" s="25">
         <v>1.0</v>
@@ -3539,7 +3534,7 @@
     <row r="188" ht="12.0" customHeight="1">
       <c r="A188" s="23"/>
       <c r="B188" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="25"/>
       <c r="D188" s="23"/>
@@ -3549,10 +3544,10 @@
     <row r="189" ht="12.0" customHeight="1">
       <c r="A189" s="23"/>
       <c r="B189" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="23"/>
@@ -3561,10 +3556,10 @@
     <row r="190" ht="12.0" customHeight="1">
       <c r="A190" s="23"/>
       <c r="B190" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
@@ -3573,10 +3568,10 @@
     <row r="191" ht="12.0" customHeight="1">
       <c r="A191" s="23"/>
       <c r="B191" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
@@ -3592,7 +3587,7 @@
     </row>
     <row r="193" ht="12.0" customHeight="1">
       <c r="A193" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B193" s="23"/>
       <c r="C193" s="24"/>
@@ -3606,7 +3601,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
@@ -3615,10 +3610,10 @@
     <row r="195" ht="12.0" customHeight="1">
       <c r="A195" s="23"/>
       <c r="B195" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="23"/>
       <c r="E195" s="23"/>
@@ -3627,7 +3622,7 @@
     <row r="196" ht="12.0" customHeight="1">
       <c r="A196" s="23"/>
       <c r="B196" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" s="25">
         <v>1.0</v>
@@ -3639,7 +3634,7 @@
     <row r="197" ht="12.0" customHeight="1">
       <c r="A197" s="23"/>
       <c r="B197" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="25"/>
       <c r="D197" s="23"/>
@@ -3649,10 +3644,10 @@
     <row r="198" ht="12.0" customHeight="1">
       <c r="A198" s="23"/>
       <c r="B198" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="23"/>
@@ -3661,10 +3656,10 @@
     <row r="199" ht="12.0" customHeight="1">
       <c r="A199" s="23"/>
       <c r="B199" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D199" s="23"/>
       <c r="E199" s="23"/>
@@ -3673,10 +3668,10 @@
     <row r="200" ht="12.0" customHeight="1">
       <c r="A200" s="23"/>
       <c r="B200" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
@@ -3692,7 +3687,7 @@
     </row>
     <row r="202" ht="12.0" customHeight="1">
       <c r="A202" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B202" s="23"/>
       <c r="C202" s="24"/>
@@ -3706,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D203" s="23"/>
       <c r="E203" s="23"/>
@@ -3715,10 +3710,10 @@
     <row r="204" ht="12.0" customHeight="1">
       <c r="A204" s="23"/>
       <c r="B204" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
@@ -3727,7 +3722,7 @@
     <row r="205" ht="12.0" customHeight="1">
       <c r="A205" s="23"/>
       <c r="B205" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" s="25">
         <v>1.0</v>
@@ -3739,7 +3734,7 @@
     <row r="206" ht="12.0" customHeight="1">
       <c r="A206" s="23"/>
       <c r="B206" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C206" s="25"/>
       <c r="D206" s="23"/>
@@ -3749,10 +3744,10 @@
     <row r="207" ht="12.0" customHeight="1">
       <c r="A207" s="23"/>
       <c r="B207" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30"/>
@@ -3761,10 +3756,10 @@
     <row r="208" ht="12.0" customHeight="1">
       <c r="A208" s="23"/>
       <c r="B208" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
@@ -3773,10 +3768,10 @@
     <row r="209" ht="12.0" customHeight="1">
       <c r="A209" s="23"/>
       <c r="B209" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30"/>
@@ -3792,7 +3787,7 @@
     </row>
     <row r="211" ht="12.0" customHeight="1">
       <c r="A211" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B211" s="23"/>
       <c r="C211" s="24"/>
@@ -3806,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
@@ -3815,10 +3810,10 @@
     <row r="213" ht="12.0" customHeight="1">
       <c r="A213" s="23"/>
       <c r="B213" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="23"/>
       <c r="E213" s="23"/>
@@ -3827,7 +3822,7 @@
     <row r="214" ht="12.0" customHeight="1">
       <c r="A214" s="23"/>
       <c r="B214" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" s="25">
         <v>1.0</v>
@@ -3839,7 +3834,7 @@
     <row r="215" ht="12.0" customHeight="1">
       <c r="A215" s="23"/>
       <c r="B215" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C215" s="25"/>
       <c r="D215" s="23"/>
@@ -3849,10 +3844,10 @@
     <row r="216" ht="12.0" customHeight="1">
       <c r="A216" s="23"/>
       <c r="B216" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C216" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30"/>
@@ -3861,10 +3856,10 @@
     <row r="217" ht="12.0" customHeight="1">
       <c r="A217" s="23"/>
       <c r="B217" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
@@ -3873,10 +3868,10 @@
     <row r="218" ht="12.0" customHeight="1">
       <c r="A218" s="23"/>
       <c r="B218" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30"/>
